--- a/Input/UTC.xlsx
+++ b/Input/UTC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
   <si>
     <t>Index</t>
   </si>
@@ -192,7 +192,28 @@
     <t>Push It Messenger Bag</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>UCT-005</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Affirm Water Bottle</t>
+  </si>
+  <si>
+    <t>UCT-006</t>
+  </si>
+  <si>
+    <t>UCT-007</t>
+  </si>
+  <si>
+    <t>Men/Woman</t>
+  </si>
+  <si>
+    <t>Selene Yoga Hoodie</t>
+  </si>
+  <si>
+    <t>UCT-008</t>
   </si>
   <si>
     <t>CategoryName</t>
@@ -343,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,39 +430,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1147,22 +1159,22 @@
       <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1173,22 +1185,22 @@
       <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1199,22 +1211,22 @@
       <c r="B4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1225,36 +1237,123 @@
       <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>59</v>
       </c>
+      <c r="C6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>59</v>
+      <c r="A7" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>59</v>
+      <c r="A8" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1273,122 +1372,122 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34">
+      <c r="A2" s="32">
         <v>1.0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34">
+      <c r="A3" s="32">
         <v>2.0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>3.0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>4.0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Input/UTC.xlsx
+++ b/Input/UTC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>Index</t>
   </si>
@@ -180,7 +180,7 @@
     <t>TH3</t>
   </si>
   <si>
-    <t>Woman/Men</t>
+    <t>Women/Men</t>
   </si>
   <si>
     <t>Geo Insulated Jogging Pant</t>
@@ -207,7 +207,7 @@
     <t>UCT-007</t>
   </si>
   <si>
-    <t>Men/Woman</t>
+    <t>Men/Women</t>
   </si>
   <si>
     <t>Selene Yoga Hoodie</t>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>ProductName</t>
-  </si>
-  <si>
-    <t>Women/Men</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1448,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>56</v>
